--- a/biology/Médecine/Endoprothèse/Endoprothèse.xlsx
+++ b/biology/Médecine/Endoprothèse/Endoprothèse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Endoproth%C3%A8se</t>
+          <t>Endoprothèse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une endoprothèse  est une prothèse interne à l'organisme par opposition aux exo-prothèses. Elle rentre donc dans la catégorie des dispositifs médicaux (DM) et plus particulièrement des dispositifs médicaux implantables (DMI).
 Aujourd'hui, ce terme est abusivement confondu avec « stent ».
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Endoproth%C3%A8se</t>
+          <t>Endoprothèse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,28 +529,271 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orthopédie
-Prothèse totale de hanche ;
+          <t>Orthopédie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Prothèse totale de hanche ;
 prothèse du genou ;
 prothèses articulaires en général ;
-prothèse de disque lombaire.
-Chirurgie cardiovasculaire
-Bioprothèse valvulaire ;
-remplacement de parties de vaisseaux lésés par des vaisseaux de substitution en dacron ou en polytétrafluoroéthylène[1].
-Cardiologie interventionnelle
-Stents.
-Otorhinolaryngologie
-Implant cochléaire ;
-implants d'oreille moyenne
-Odontologie et chirurgie maxillofaciale
-Implants dentaires.
-Gastro-entérologie
-Endoprothèse œsophagienne[2].
-endoprothèse biliaire.
-Urologie
-Endoprothèse urétérale.
-Chirurgie réparatrice et plastique
-Prothèses mammaires, etc.</t>
+prothèse de disque lombaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Endoprothèse</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endoproth%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Différentes catégories d'endoprothèses</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chirurgie cardiovasculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bioprothèse valvulaire ;
+remplacement de parties de vaisseaux lésés par des vaisseaux de substitution en dacron ou en polytétrafluoroéthylène.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Endoprothèse</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endoproth%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Différentes catégories d'endoprothèses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cardiologie interventionnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Stents.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Endoprothèse</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endoproth%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Différentes catégories d'endoprothèses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Otorhinolaryngologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Implant cochléaire ;
+implants d'oreille moyenne</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Endoprothèse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endoproth%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Différentes catégories d'endoprothèses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Odontologie et chirurgie maxillofaciale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Implants dentaires.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Endoprothèse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endoproth%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Différentes catégories d'endoprothèses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gastro-entérologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Endoprothèse œsophagienne.
+endoprothèse biliaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Endoprothèse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endoproth%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Différentes catégories d'endoprothèses</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Urologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Endoprothèse urétérale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Endoprothèse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endoproth%C3%A8se</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Différentes catégories d'endoprothèses</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chirurgie réparatrice et plastique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prothèses mammaires, etc.</t>
         </is>
       </c>
     </row>
